--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vangjush\IdeaProjects\DataDriven\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D858997A-69BD-46CA-9191-DDA2112F3368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CB5969-53EE-4006-A00B-D4F1765B0D90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
